--- a/files/Requisitos Funcionais.xlsx
+++ b/files/Requisitos Funcionais.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Identificador</t>
   </si>
@@ -174,6 +174,42 @@
   </si>
   <si>
     <t>Excluir Area</t>
+  </si>
+  <si>
+    <t>Cadastrar Vendedora</t>
+  </si>
+  <si>
+    <t>Exibir Vendedora</t>
+  </si>
+  <si>
+    <t>Editar Vendedora</t>
+  </si>
+  <si>
+    <t>Excluir Vendedora</t>
+  </si>
+  <si>
+    <t>Cadastrar Evento</t>
+  </si>
+  <si>
+    <t>Exibir Evento</t>
+  </si>
+  <si>
+    <t>Editar Evento</t>
+  </si>
+  <si>
+    <t>Excluir Evento</t>
+  </si>
+  <si>
+    <t>Cadastrar Categoria de Evento</t>
+  </si>
+  <si>
+    <t>Exibir Categoria de Evento</t>
+  </si>
+  <si>
+    <t>Editar Categoria de Evento</t>
+  </si>
+  <si>
+    <t>Excluir Categoria de Evento</t>
   </si>
 </sst>
 </file>
@@ -399,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,7 +450,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,15 +763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="23.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -755,260 +790,284 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
